--- a/userFunctionProfiles/userFunctionProfileList_appCore.xlsx
+++ b/userFunctionProfiles/userFunctionProfileList_appCore.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcorbara\Documents\ArgoX3_API_Mobile_CORE\userFunctionProfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86345656-EDA0-40D7-B92D-AD8FFD723621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC3BFC3-31FA-44DC-9C60-12B1252B4665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="27000" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Profili funzione" sheetId="1" r:id="rId1"/>
+    <sheet name="Abilitazioni funzionali" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="37">
   <si>
     <t>Codice  profilo</t>
   </si>
@@ -48,9 +49,6 @@
     <t>AX3MV</t>
   </si>
   <si>
-    <t>AX3MC/cl ( todo)</t>
-  </si>
-  <si>
     <t>Funzioni ArgoX3 Mobile Stock</t>
   </si>
   <si>
@@ -64,6 +62,81 @@
   </si>
   <si>
     <t>si</t>
+  </si>
+  <si>
+    <t>AX3MC</t>
+  </si>
+  <si>
+    <t>AX3M</t>
+  </si>
+  <si>
+    <t>Funzioni ArgoX3 Mobile</t>
+  </si>
+  <si>
+    <t>Codice Profilo</t>
+  </si>
+  <si>
+    <t>Funzione</t>
+  </si>
+  <si>
+    <t>Modulo</t>
+  </si>
+  <si>
+    <t>YAX3MSMR</t>
+  </si>
+  <si>
+    <t>YAX3MSMO</t>
+  </si>
+  <si>
+    <t>YAX3MCSK</t>
+  </si>
+  <si>
+    <t>YAX3MVCG</t>
+  </si>
+  <si>
+    <t>YAX3MSOH</t>
+  </si>
+  <si>
+    <t>YAX3MVSO</t>
+  </si>
+  <si>
+    <t>YAX3MBPC</t>
+  </si>
+  <si>
+    <t>YAX3MVBP</t>
+  </si>
+  <si>
+    <t>Supervisore</t>
+  </si>
+  <si>
+    <t>Clienti AX3M</t>
+  </si>
+  <si>
+    <t>Cambio Stock AX3M</t>
+  </si>
+  <si>
+    <t>Uscite Diverse AX3M</t>
+  </si>
+  <si>
+    <t>Entrate Diverse AX3M</t>
+  </si>
+  <si>
+    <t>Controllo Stock AX3M</t>
+  </si>
+  <si>
+    <t>Ordini di Vendita AX3M</t>
+  </si>
+  <si>
+    <t>Ricerca Ordine Vendita AX3M</t>
+  </si>
+  <si>
+    <t>Ricerca Cliente AX3M</t>
+  </si>
+  <si>
+    <t>YSTCKINV</t>
+  </si>
+  <si>
+    <t>Inventario</t>
   </si>
 </sst>
 </file>
@@ -87,15 +160,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -104,10 +183,25 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -122,6 +216,33 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -132,9 +253,31 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -144,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -152,10 +295,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -438,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,71 +612,351 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A0E58B7-73E4-4203-BED7-B575633C09F8}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
+      <c r="B22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
